--- a/TestScenarioUjianMingguan7.xlsx
+++ b/TestScenarioUjianMingguan7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bootcamp Juara Coding\exam\Ujian Ke 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837D2C03-AFF0-42E4-BD5C-50DF203A61DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60C6B17-7EA4-4AB1-A798-A73040615AE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E7751A9-7589-4072-9645-2F42084761C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Menampilkan &amp; mengisi  form register, sesuai</t>
   </si>
   <si>
     <t>TCC.FR.001</t>
@@ -486,6 +483,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,11 +506,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,7 +823,7 @@
   <dimension ref="A2:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,26 +840,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -895,19 +892,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>8</v>
@@ -920,19 +917,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>8</v>
@@ -945,19 +942,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>8</v>
@@ -970,15 +967,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>8</v>
@@ -991,19 +988,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>8</v>
@@ -1016,15 +1013,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>8</v>
@@ -1037,19 +1034,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>8</v>
@@ -1062,19 +1059,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>8</v>
@@ -1087,19 +1084,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>8</v>
@@ -1112,15 +1109,15 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>8</v>
@@ -1133,19 +1130,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>49</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>8</v>
@@ -1158,15 +1155,15 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>8</v>
@@ -1179,19 +1176,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>8</v>
@@ -1204,15 +1201,15 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>8</v>
@@ -1225,19 +1222,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>8</v>
@@ -1250,15 +1247,15 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>8</v>
@@ -1271,19 +1268,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>8</v>
@@ -1296,19 +1293,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>8</v>
@@ -1321,15 +1318,15 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>8</v>
@@ -1342,19 +1339,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>8</v>
@@ -1367,15 +1364,15 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>8</v>
@@ -1388,19 +1385,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>8</v>
@@ -1413,15 +1410,15 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>8</v>
@@ -1434,19 +1431,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>8</v>
@@ -1459,15 +1456,15 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>8</v>
@@ -1480,19 +1477,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>54</v>
+        <v>76</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>8</v>
@@ -1505,15 +1502,15 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>8</v>
